--- a/public/taiyu-notebookLM-subject.xlsx
+++ b/public/taiyu-notebookLM-subject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\eason\Document\taiyu-notebookLM-website\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2710DF-4570-4B9F-AC79-FF54485C3208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCD40B4-E425-41B0-87C3-D0362D5D2FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{7EDCDC15-66A8-4EAE-BFE1-E0FB1BCAB8B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EDCDC15-66A8-4EAE-BFE1-E0FB1BCAB8B7}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -244,13 +244,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +292,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,18 +610,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F675E46B-7025-43CF-9047-07717BCA1D4B}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -623,8 +639,10 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -641,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -658,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -675,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -692,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -709,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -726,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -743,7 +761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>12</v>
       </c>
@@ -760,7 +778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>13</v>
       </c>
@@ -777,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -794,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -811,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>17</v>
       </c>
@@ -828,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>18</v>
       </c>
@@ -845,7 +863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>19</v>
       </c>
@@ -862,7 +880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>20</v>
       </c>
